--- a/biology/Médecine/Pere_Felip_Monlau/Pere_Felip_Monlau.xlsx
+++ b/biology/Médecine/Pere_Felip_Monlau/Pere_Felip_Monlau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pere Felip Monlau (Barcelone, 1808 - Madrid[1], 1871) est un docteur en médecine, hygiéniste et humaniste.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pere Felip Monlau (Barcelone, 1808 - Madrid, 1871) est un docteur en médecine, hygiéniste et humaniste.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Monlau est un médecin, Considéré comme un représentant de l'humanisme, il est doté d'une formation scientifique. .
 Il est titulaire en 1844 de la chaire de philosophie de l'institut San Isidro et à l'école normale de Madrid, avant d'intégrer la chaire de littérature et d'histoire de l'université de Barcelone à partir de 1849. 
-Considéré comme humaniste il pensait qu'une grande partie des maux de la société étaient dus aux manques d'éducation[1]. Il écrit de nombreuses œuvres sur des thèmes variés : drames, comédies, des études sur le daguerroptype qu'il découvre à Paris, sur les végétaux. Il devient directeur du journal El vapor'[2].
+Considéré comme humaniste il pensait qu'une grande partie des maux de la société étaient dus aux manques d'éducation. Il écrit de nombreuses œuvres sur des thèmes variés : drames, comédies, des études sur le daguerroptype qu'il découvre à Paris, sur les végétaux. Il devient directeur du journal El vapor'.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Activité professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du point de vue médical, il se consacre à la psychiatrie. Il est membre titulaire de la société médico-psychologique de Paris et en 184- il traduit l'étude de Brierre de Boismont : mémoire pour la création d'un hôpital pour les fous
 Peu après il est nommé médecin en phrénologie de l'Hospital de la Santa Creu de Barcelone en octobre 1843 où il fait supprimer les chaines aux fous qu'il considère désormais comme tels.
@@ -578,7 +594,9 @@
           <t>Principales œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>À bas les murailles. Mémoire sur les avantages qu'aurait Barcelone et principalement son industrie à démolir les murailles qui ceinturent la ville. Premier prix et médaille d'or de la ville de Barcelone.</t>
         </is>
